--- a/2016년 재료비 8월/한자속독 교재비.xlsx
+++ b/2016년 재료비 8월/한자속독 교재비.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -855,7 +855,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <f>SUM(F2:F13)</f>
+        <v>216000</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1"/>

--- a/2016년 재료비 8월/한자속독 교재비.xlsx
+++ b/2016년 재료비 8월/한자속독 교재비.xlsx
@@ -560,15 +560,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="6" customWidth="1"/>

--- a/2016년 재료비 8월/한자속독 교재비.xlsx
+++ b/2016년 재료비 8월/한자속독 교재비.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="한자속독 교재비" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'한자속독 교재비'!$A$1:$G$14</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>*주야</t>
   </si>
@@ -45,111 +42,70 @@
     <t>주간</t>
   </si>
   <si>
+    <t>1학년</t>
+  </si>
+  <si>
+    <t>5반</t>
+  </si>
+  <si>
+    <t>고관호</t>
+  </si>
+  <si>
+    <t>조윤지</t>
+  </si>
+  <si>
+    <t>6반</t>
+  </si>
+  <si>
+    <t>정현근</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+  </si>
+  <si>
+    <t>2학년</t>
+  </si>
+  <si>
+    <t>1반</t>
+  </si>
+  <si>
+    <t>박민서</t>
+  </si>
+  <si>
+    <t>3반</t>
+  </si>
+  <si>
+    <t>최소윤</t>
+  </si>
+  <si>
     <t>4반</t>
   </si>
   <si>
-    <t>주간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고관호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>조윤지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정현근</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소윤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>이호령</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최찬솔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>김효준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최찬울</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>임종빈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>고윤서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>강민석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -225,38 +181,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -264,11 +221,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -566,7 +518,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
@@ -602,16 +554,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8">
         <v>18000</v>
@@ -623,16 +575,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>22000</v>
@@ -644,37 +596,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8">
         <v>18000</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8">
         <v>22000</v>
@@ -686,37 +640,39 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8">
         <v>22000</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8">
         <v>22000</v>
@@ -728,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="8">
         <v>22000</v>
@@ -749,16 +705,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8">
         <v>22000</v>
@@ -770,16 +726,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8">
         <v>22000</v>
@@ -788,19 +744,19 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" s="8">
         <v>22000</v>
@@ -812,37 +768,39 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="8">
         <v>2000</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8">
         <v>2000</v>
@@ -871,8 +829,8 @@
     <row r="20" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.43307086614173229" right="0.4763779527559055" top="0.54" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="0.4763779527559055" top="0.54" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
